--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3405.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3405.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.595998051857517</v>
+        <v>1.9693284034729</v>
       </c>
       <c r="B1">
-        <v>1.831379812378332</v>
+        <v>6.331477642059326</v>
       </c>
       <c r="C1">
-        <v>2.297176793537081</v>
+        <v>3.323112487792969</v>
       </c>
       <c r="D1">
-        <v>4.683435615415793</v>
+        <v>1.465604424476624</v>
       </c>
       <c r="E1">
-        <v>3.359511591669054</v>
+        <v>1.030220150947571</v>
       </c>
     </row>
   </sheetData>
